--- a/exportTestFiles/userTemplate.xlsx
+++ b/exportTestFiles/userTemplate.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanhualuo/Desktop/NursingManagement/exportTestFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618545A-9849-D74D-A0F3-6F2F99BA08C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="database in java" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>姓名</t>
   </si>
@@ -111,15 +112,12 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>N3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,6 +158,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -427,11 +428,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,9 +541,6 @@
       <c r="M5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
       <c r="V5" t="s">
         <v>27</v>
       </c>
